--- a/manual/תבנית סידור.xlsx
+++ b/manual/תבנית סידור.xlsx
@@ -1,129 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orbac\Desktop\Shift-Schedule\Shift-Schedule\manual\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC260E4-132D-4EFF-9150-2C3D55F21530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>סידור עבודה צוות עדי</t>
-  </si>
-  <si>
-    <t>שמות:</t>
-  </si>
-  <si>
-    <t>שעות משמרת</t>
-  </si>
-  <si>
-    <t>ראשון 10.3</t>
-  </si>
-  <si>
-    <t>שני 11.3</t>
-  </si>
-  <si>
-    <t>שלישי 12.3</t>
-  </si>
-  <si>
-    <t>רביעי 13.3</t>
-  </si>
-  <si>
-    <t>חמישי 14.3</t>
-  </si>
-  <si>
-    <t>שישי 15.3</t>
-  </si>
-  <si>
-    <t>שבת 16.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">עמדה כניסה </t>
-  </si>
-  <si>
-    <t>6:00-14:00</t>
-  </si>
-  <si>
-    <t>14:00-22:00</t>
-  </si>
-  <si>
-    <t>22:00-6:00</t>
-  </si>
-  <si>
-    <t>עמדה אחורית</t>
-  </si>
-  <si>
-    <t>הערות</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="177"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,24 +84,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -215,82 +157,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -556,206 +577,598 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col width="11.7109375" customWidth="1" min="1" max="1"/>
+    <col width="6.140625" customWidth="1" min="2" max="2"/>
+    <col width="7.5703125" customWidth="1" min="3" max="3"/>
+    <col width="6.42578125" customWidth="1" min="4" max="4"/>
+    <col width="8.42578125" customWidth="1" min="5" max="5"/>
+    <col width="7.140625" customWidth="1" min="6" max="6"/>
+    <col width="6.28515625" customWidth="1" min="7" max="7"/>
+    <col width="6.7109375" customWidth="1" min="8" max="8"/>
+    <col width="2.5703125" customWidth="1" min="9" max="9"/>
+    <col width="3.28515625" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="J1" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="24" t="inlineStr">
+        <is>
+          <t>סידור עבודה צוות עדי</t>
+        </is>
+      </c>
+      <c r="B1" s="21" t="n"/>
+      <c r="C1" s="21" t="n"/>
+      <c r="D1" s="21" t="n"/>
+      <c r="E1" s="21" t="n"/>
+      <c r="F1" s="21" t="n"/>
+      <c r="G1" s="21" t="n"/>
+      <c r="H1" s="22" t="n"/>
+      <c r="J1" s="18" t="inlineStr">
+        <is>
+          <t>שמות:</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>א</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ב</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>ג</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ד</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>ה</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ו</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ש</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>כמות משמרות:</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>שעות משמרת</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>ראשון 10.3</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>שני 11.3</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>שלישי 12.3</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>רביעי 13.3</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>חמישי 14.3</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>שישי 15.3</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>שבת 16.3</t>
+        </is>
+      </c>
+      <c r="J2" s="19" t="inlineStr">
+        <is>
+          <t>זיו</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>זיו</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">עמדה כניסה </t>
+        </is>
+      </c>
+      <c r="B3" s="21" t="n"/>
+      <c r="C3" s="21" t="n"/>
+      <c r="D3" s="21" t="n"/>
+      <c r="E3" s="21" t="n"/>
+      <c r="F3" s="21" t="n"/>
+      <c r="G3" s="21" t="n"/>
+      <c r="H3" s="22" t="n"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>אור</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>אור</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="inlineStr">
+        <is>
+          <t>6:00-14:00</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="7" t="n"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>רוני</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>רוני</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="inlineStr">
+        <is>
+          <t>14:00-22:00</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="7" t="n"/>
+      <c r="H5" s="7" t="n"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>אמור</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>22:00-6:00</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="7" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>אוראל</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>אוראל</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>b.c</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="inlineStr">
+        <is>
+          <t>עמדה אחורית</t>
+        </is>
+      </c>
+      <c r="B7" s="21" t="n"/>
+      <c r="C7" s="21" t="n"/>
+      <c r="D7" s="21" t="n"/>
+      <c r="E7" s="21" t="n"/>
+      <c r="F7" s="21" t="n"/>
+      <c r="G7" s="21" t="n"/>
+      <c r="H7" s="22" t="n"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>יניב</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>יניב</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>a.b</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="16" t="inlineStr">
+        <is>
+          <t>6:00-14:00</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="7" t="n"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>עמית</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>עמית</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>a.c</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="inlineStr">
+        <is>
+          <t>14:00-22:00</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="6" t="n"/>
+      <c r="F9" s="6" t="n"/>
+      <c r="G9" s="7" t="n"/>
+      <c r="H9" s="7" t="n"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>תגבור</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="inlineStr">
+        <is>
+          <t>22:00-6:00</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="23" t="inlineStr">
+        <is>
+          <t>הערות</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="n"/>
+      <c r="C11" s="21" t="n"/>
+      <c r="D11" s="21" t="n"/>
+      <c r="E11" s="21" t="n"/>
+      <c r="F11" s="21" t="n"/>
+      <c r="G11" s="21" t="n"/>
+      <c r="H11" s="22" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="9" t="n"/>
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="12" t="n"/>
+      <c r="H12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="13" t="n"/>
+      <c r="G13" s="8" t="n"/>
+      <c r="H13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="5" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -765,6 +1178,6 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/manual/תבנית סידור.xlsx
+++ b/manual/תבנית סידור.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5940" yWindow="2025" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -585,7 +585,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -600,6 +600,7 @@
     <col width="6.7109375" customWidth="1" min="8" max="8"/>
     <col width="2.5703125" customWidth="1" min="9" max="9"/>
     <col width="3.28515625" customWidth="1" min="11" max="11"/>
+    <col width="15.28515625" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -660,6 +661,11 @@
           <t>כמות משמרות:</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>AMOUNT:</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -749,6 +755,9 @@
       </c>
       <c r="T2" t="n">
         <v>6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -812,6 +821,9 @@
       <c r="T3" t="n">
         <v>6</v>
       </c>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="inlineStr">
@@ -874,6 +886,9 @@
       <c r="T4" t="n">
         <v>6</v>
       </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="inlineStr">
@@ -926,6 +941,9 @@
       <c r="T5" t="n">
         <v>6</v>
       </c>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="inlineStr">
@@ -988,6 +1006,9 @@
       <c r="T6" t="n">
         <v>6</v>
       </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="inlineStr">
@@ -1040,6 +1061,9 @@
       <c r="T7" t="n">
         <v>6</v>
       </c>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr">
@@ -1091,6 +1115,9 @@
       </c>
       <c r="T8" t="n">
         <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">

--- a/manual/תבנית סידור.xlsx
+++ b/manual/תבנית סידור.xlsx
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -100,6 +100,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -182,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
@@ -238,6 +244,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,6 +628,11 @@
           <t>שמות:</t>
         </is>
       </c>
+      <c r="L1" s="25" t="inlineStr">
+        <is>
+          <t>הערות:</t>
+        </is>
+      </c>
       <c r="M1" t="inlineStr">
         <is>
           <t>א</t>
@@ -713,11 +725,6 @@
           <t>זיו</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>זיו</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>a.b</t>
@@ -757,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -778,11 +785,6 @@
           <t>אור</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>אור</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>b.c</t>
@@ -822,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -843,11 +845,6 @@
           <t>רוני</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>רוני</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>f</t>
@@ -887,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -908,11 +905,6 @@
           <t>אמור</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>אמור</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>a.c</t>
@@ -963,11 +955,6 @@
           <t>אוראל</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>אוראל</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>a</t>
@@ -1028,11 +1015,6 @@
           <t>יניב</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>יניב</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>b</t>
@@ -1083,11 +1065,6 @@
           <t>עמית</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>עמית</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>a.c</t>
@@ -1117,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
